--- a/Modules/DCDC_StepDown(LTC3892)_(DualPower [CUK]-12v3A & [BUCK]12v10A )/bom.xlsx
+++ b/Modules/DCDC_StepDown(LTC3892)_(DualPower [CUK]-12v3A & [BUCK]12v10A )/bom.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OneDrive\Project\-18v~18v Dual-Power\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files_of_zhangyu\Project\KICAD\Modules\DCDC_StepDown(LTC3892)_(DualPower [CUK]-12v3A &amp; [BUCK]12v10A )\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:40009_{E59CAE19-937C-4373-B9F5-858997CA61BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6CD72B7D-8247-460B-A72D-63923367F531}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D468CF-ADE8-4AEF-A683-BBA39D404509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="300" windowWidth="16815" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bom" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1345,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2217,7 +2228,7 @@
         <v>66</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2241,7 +2252,7 @@
         <v>69</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2265,7 +2276,7 @@
         <v>72</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2289,7 +2300,7 @@
         <v>75</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2313,7 +2324,7 @@
         <v>75</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G38">
         <v>0</v>
